--- a/pred_ohlcv/54_21/2019-10-28 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 KNC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-38302.3194</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-44286.0586</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-73687.811</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-73442.5125</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-74424.25599999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-74424.25599999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-79158.1231</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-78790.4902</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-78790.4902</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-76534.06200000001</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-76087.71000000001</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-76086.71000000001</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-76096.71000000001</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-76096.71000000001</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-73293.99000000001</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-72853.7608</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-76952.15670000001</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-76952.15670000001</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-76583.15670000001</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-76583.15670000001</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-76583.15670000001</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-76583.15670000001</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-76582.15670000001</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-70449.7988</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-60207.18589567308</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-59752.85759567308</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-65715.90759567308</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-68068.79809567308</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-68068.79809567308</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-67846.14219567308</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-67846.14219567308</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-60427.05679567308</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-60129.77599567308</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>372120.6611043268</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>55132.54780432679</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>55132.54780432679</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>59558.4223043268</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>61120.2014043268</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 KNC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-38302.3194</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-44286.0586</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-73687.811</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-73442.5125</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-74424.25599999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-74424.25599999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-78790.4902</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-77137.156</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-76087.71000000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-76096.71000000001</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-76583.15670000001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-76583.15670000001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-76583.15670000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-76582.15670000001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-76774.70080000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-70449.7988</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-70449.7988</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-70449.7988</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-70449.7988</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-70449.7988</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-60207.18589567308</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-60667.65089567308</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-59752.85759567308</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-65715.90759567308</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-63318.07119567308</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-68068.79809567308</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-68068.79809567308</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-67846.14219567308</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-67846.14219567308</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-60427.05679567308</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-60129.77599567308</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-62935.80289567308</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-566101.2332956732</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>58133.42250432679</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>55132.54780432679</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>55132.54780432679</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>55132.54780432679</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>57732.54780432679</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>53582.51190432679</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>53582.51190432679</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>70149.87370432679</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>70015.3735043268</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>69479.4278043268</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>69558.4223043268</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>59558.4223043268</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
